--- a/web hmp ti project planner.xlsx
+++ b/web hmp ti project planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\widi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hmpti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{D2E01979-5092-48DE-AD5D-645D0769A9F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5E55A-46C9-42C1-AF2A-B7025CB90EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,24 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
   </si>
   <si>
     <t>Activity 07</t>
@@ -232,6 +220,21 @@
   </si>
   <si>
     <t>Membuat Project Plan</t>
+  </si>
+  <si>
+    <t>UI profil anggota</t>
+  </si>
+  <si>
+    <t>UI halaman divisi</t>
+  </si>
+  <si>
+    <t>UI halaman login</t>
+  </si>
+  <si>
+    <t>UI struktur organisasi</t>
+  </si>
+  <si>
+    <t>UI visi &amp; misi</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,120 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1046,10 +1162,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1074,21 +1190,21 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -1096,21 +1212,21 @@
       <c r="O2" s="31"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
       <c r="T2" s="31"/>
       <c r="U2" s="17"/>
       <c r="V2" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="33"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
@@ -1120,7 +1236,7 @@
       <c r="AG2" s="36"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
@@ -1135,19 +1251,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>0</v>
@@ -1362,7 +1478,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1382,7 +1498,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1397,64 +1513,64 @@
         <v>2</v>
       </c>
       <c r="G6" s="8">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <v>50</v>
-      </c>
-      <c r="D7" s="7">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7">
-        <v>50</v>
-      </c>
       <c r="F7" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
-        <v>50</v>
-      </c>
       <c r="D8" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
-        <v>50</v>
-      </c>
       <c r="D9" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1462,19 +1578,19 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
-        <v>50</v>
-      </c>
       <c r="D10" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1482,19 +1598,19 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -1502,19 +1618,19 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1522,19 +1638,19 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -1542,19 +1658,19 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -1562,19 +1678,19 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1582,19 +1698,19 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1602,19 +1718,19 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
@@ -1622,19 +1738,19 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1642,19 +1758,19 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -1662,19 +1778,19 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
@@ -1682,19 +1798,19 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
@@ -1702,19 +1818,19 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -1722,19 +1838,19 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C23" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1742,19 +1858,19 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1762,19 +1878,19 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -1782,19 +1898,19 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -1802,19 +1918,19 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
@@ -1822,19 +1938,19 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>0</v>
@@ -1842,19 +1958,19 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -1862,21 +1978,41 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1895,40 +2031,66 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H5:BO6 H8:BO31">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B32:BO32">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:BO7">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">

--- a/web hmp ti project planner.xlsx
+++ b/web hmp ti project planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hmpti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5E55A-46C9-42C1-AF2A-B7025CB90EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F6442-5406-4AE6-9C81-67B8FB929A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>PERIODS</t>
   </si>
@@ -236,12 +236,15 @@
   <si>
     <t>UI visi &amp; misi</t>
   </si>
+  <si>
+    <t>Deadline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -341,8 +344,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +544,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,6 +655,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="8" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1162,10 +1190,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO31"/>
+  <dimension ref="B1:BO32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1245,6 +1273,10 @@
       <c r="AN2" s="22"/>
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="37" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
@@ -1355,7 +1387,7 @@
       <c r="AA4" s="3">
         <v>20</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="39">
         <v>21</v>
       </c>
       <c r="AC4" s="3">
@@ -1495,6 +1527,7 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
+      <c r="AB5" s="40"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1567,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1716,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1756,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1776,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1836,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
@@ -1936,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>18</v>
       </c>
@@ -1956,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
@@ -1976,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
@@ -2015,6 +2048,9 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
+    </row>
+    <row r="32" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/web hmp ti project planner.xlsx
+++ b/web hmp ti project planner.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hmpti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\hmpti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F6442-5406-4AE6-9C81-67B8FB929A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -243,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,6 +607,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="8" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -656,38 +667,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="8" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% complete" xfId="16"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
+    <cellStyle name="Actual legend" xfId="15"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Period Value" xfId="13"/>
+    <cellStyle name="Plan legend" xfId="14"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -1185,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1193,7 +1192,7 @@
   <dimension ref="B1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1217,13 +1216,13 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1231,70 +1230,70 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="37" t="s">
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="32" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1321,12 +1320,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1387,7 +1386,7 @@
       <c r="AA4" s="3">
         <v>20</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AB4" s="23">
         <v>21</v>
       </c>
       <c r="AC4" s="3">
@@ -1527,7 +1526,7 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="AB5" s="40"/>
+      <c r="AB5" s="24"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1606,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,13 +1619,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2050,7 +2049,7 @@
       </c>
     </row>
     <row r="32" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB32" s="40"/>
+      <c r="AB32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2130,24 +2129,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/web hmp ti project planner.xlsx
+++ b/web hmp ti project planner.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\hmpti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hmpti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F133B8-D334-4914-AF98-45D76EA30E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -42,27 +43,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
   </si>
   <si>
     <t>Activity 14</t>
@@ -238,12 +218,33 @@
   <si>
     <t>Deadline</t>
   </si>
+  <si>
+    <t>PEMBATAS</t>
+  </si>
+  <si>
+    <t>UI admin dashboard</t>
+  </si>
+  <si>
+    <t>UI admin create event</t>
+  </si>
+  <si>
+    <t>UI Edit carousel</t>
+  </si>
+  <si>
+    <t>UI Edit anggota</t>
+  </si>
+  <si>
+    <t>UI Edit Struktur Organisasi</t>
+  </si>
+  <si>
+    <t>UI Edit Visi misi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -350,8 +351,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +557,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,26 +681,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
@@ -1184,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1192,7 +1212,7 @@
   <dimension ref="B1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1227,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1217,21 +1237,21 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -1239,21 +1259,21 @@
       <c r="O2" s="35"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="35"/>
       <c r="U2" s="17"/>
       <c r="V2" s="25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W2" s="26"/>
       <c r="X2" s="26"/>
       <c r="Y2" s="37"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="38" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AB2" s="39"/>
       <c r="AC2" s="39"/>
@@ -1263,7 +1283,7 @@
       <c r="AG2" s="40"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AJ2" s="26"/>
       <c r="AK2" s="26"/>
@@ -1274,7 +1294,7 @@
       <c r="AP2" s="26"/>
       <c r="AR2" s="22"/>
       <c r="AS2" s="21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1282,19 +1302,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>0</v>
@@ -1509,7 +1529,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1530,7 +1550,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1550,7 +1570,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1570,7 +1590,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -1590,7 +1610,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1610,7 +1630,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -1625,12 +1645,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -1639,18 +1659,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>2</v>
+      <c r="B12" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1669,8 +1689,8 @@
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>3</v>
+      <c r="B13" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1689,8 +1709,8 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>4</v>
+      <c r="B14" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1709,8 +1729,8 @@
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>5</v>
+      <c r="B15" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1729,8 +1749,8 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>6</v>
+      <c r="B16" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1749,8 +1769,8 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>7</v>
+      <c r="B17" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1769,8 +1789,8 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>8</v>
+      <c r="B18" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1790,7 +1810,7 @@
     </row>
     <row r="19" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1810,7 +1830,7 @@
     </row>
     <row r="20" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1830,7 +1850,7 @@
     </row>
     <row r="21" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1850,7 +1870,7 @@
     </row>
     <row r="22" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1870,7 +1890,7 @@
     </row>
     <row r="23" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1890,7 +1910,7 @@
     </row>
     <row r="24" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1910,7 +1930,7 @@
     </row>
     <row r="25" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1930,7 +1950,7 @@
     </row>
     <row r="26" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1950,7 +1970,7 @@
     </row>
     <row r="27" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1970,7 +1990,7 @@
     </row>
     <row r="28" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1990,7 +2010,7 @@
     </row>
     <row r="29" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2010,7 +2030,7 @@
     </row>
     <row r="30" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2030,7 +2050,7 @@
     </row>
     <row r="31" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2129,24 +2149,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
